--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B73D533-5F59-0B41-99A4-72597BB1EC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB948AA1-9D1C-994D-A8EB-BF9E83782726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15640" firstSheet="5" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1030" uniqueCount="168">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -30862,8 +30862,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30906,510 +30906,541 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>142.80387717065091</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3"/>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>94</v>
+      </c>
+      <c r="D2" s="4">
+        <v>335</v>
+      </c>
+      <c r="E2" s="4">
+        <v>1011</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2804</v>
+      </c>
+      <c r="G2" s="4">
+        <v>3343</v>
+      </c>
+      <c r="H2" s="4">
+        <v>3690</v>
+      </c>
+      <c r="I2" s="4">
+        <v>5036</v>
+      </c>
+      <c r="J2" s="61">
+        <v>0</v>
+      </c>
+      <c r="K2" s="61">
+        <v>0</v>
+      </c>
+      <c r="L2" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>160.3552694634545</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3"/>
+      <c r="B3" s="4">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4">
+        <v>62</v>
+      </c>
+      <c r="D3" s="4">
+        <v>354</v>
+      </c>
+      <c r="E3" s="4">
+        <v>156</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1713</v>
+      </c>
+      <c r="G3" s="4">
+        <v>1603</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1890</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1854</v>
+      </c>
+      <c r="J3" s="61">
+        <v>0</v>
+      </c>
+      <c r="K3" s="61">
+        <v>0</v>
+      </c>
+      <c r="L3" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>77.996375391144909</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3"/>
+      <c r="B4" s="4">
+        <v>3</v>
+      </c>
+      <c r="C4" s="4">
+        <v>57</v>
+      </c>
+      <c r="D4" s="4">
+        <v>64</v>
+      </c>
+      <c r="E4" s="4">
+        <v>556</v>
+      </c>
+      <c r="F4" s="4">
+        <v>76</v>
+      </c>
+      <c r="G4" s="4">
+        <v>818</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1382</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1449</v>
+      </c>
+      <c r="J4" s="61">
+        <v>0</v>
+      </c>
+      <c r="K4" s="61">
+        <v>0</v>
+      </c>
+      <c r="L4" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3"/>
+      <c r="B5" s="4">
+        <v>5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>3</v>
+      </c>
+      <c r="D5" s="4">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45</v>
+      </c>
+      <c r="F5" s="4">
+        <v>123</v>
+      </c>
+      <c r="G5" s="4">
+        <v>382</v>
+      </c>
+      <c r="H5" s="4">
+        <v>54</v>
+      </c>
+      <c r="I5" s="4">
+        <v>513</v>
+      </c>
+      <c r="J5" s="61">
+        <v>0</v>
+      </c>
+      <c r="K5" s="61">
+        <v>0</v>
+      </c>
+      <c r="L5" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>330.0755918623459</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3"/>
+      <c r="B6" s="4">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4">
+        <v>87</v>
+      </c>
+      <c r="D6" s="4">
+        <v>348</v>
+      </c>
+      <c r="E6" s="4">
+        <v>477</v>
+      </c>
+      <c r="F6" s="4">
+        <v>735</v>
+      </c>
+      <c r="G6" s="4">
+        <v>457</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1911</v>
+      </c>
+      <c r="I6" s="4">
+        <v>2835</v>
+      </c>
+      <c r="J6" s="61">
+        <v>0</v>
+      </c>
+      <c r="K6" s="61">
+        <v>0</v>
+      </c>
+      <c r="L6" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>723.97513666034843</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3"/>
+      <c r="B7" s="4">
+        <v>26</v>
+      </c>
+      <c r="C7" s="4">
+        <v>41</v>
+      </c>
+      <c r="D7" s="4">
+        <v>431</v>
+      </c>
+      <c r="E7" s="4">
+        <v>237</v>
+      </c>
+      <c r="F7" s="4">
+        <v>847</v>
+      </c>
+      <c r="G7" s="4">
+        <v>1221</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1274</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1806</v>
+      </c>
+      <c r="J7" s="61">
+        <v>0</v>
+      </c>
+      <c r="K7" s="61">
+        <v>0</v>
+      </c>
+      <c r="L7" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>666.82700030564888</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3"/>
+      <c r="B8" s="4">
+        <v>37</v>
+      </c>
+      <c r="C8" s="4">
+        <v>84</v>
+      </c>
+      <c r="D8" s="4">
+        <v>141</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="F8" s="4">
+        <v>926</v>
+      </c>
+      <c r="G8" s="4">
+        <v>1243</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2532</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2655</v>
+      </c>
+      <c r="J8" s="61">
+        <v>0</v>
+      </c>
+      <c r="K8" s="61">
+        <v>0</v>
+      </c>
+      <c r="L8" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>293.18804112919048</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3"/>
+      <c r="B9" s="4">
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>27</v>
+      </c>
+      <c r="D9" s="4">
+        <v>129</v>
+      </c>
+      <c r="E9" s="4">
+        <v>511</v>
+      </c>
+      <c r="F9" s="4">
+        <v>599</v>
+      </c>
+      <c r="G9" s="4">
+        <v>20</v>
+      </c>
+      <c r="H9" s="4">
+        <v>1610</v>
+      </c>
+      <c r="I9" s="4">
+        <v>701</v>
+      </c>
+      <c r="J9" s="61">
+        <v>0</v>
+      </c>
+      <c r="K9" s="61">
+        <v>0</v>
+      </c>
+      <c r="L9" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="3">
-        <v>0</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="3">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="3">
-        <v>0</v>
-      </c>
-      <c r="L10" s="3"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <v>11</v>
+      </c>
+      <c r="D10" s="4">
+        <v>269</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4">
+        <v>797</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1344</v>
+      </c>
+      <c r="H10" s="4">
+        <v>929</v>
+      </c>
+      <c r="I10" s="4">
+        <v>777</v>
+      </c>
+      <c r="J10" s="61">
+        <v>0</v>
+      </c>
+      <c r="K10" s="61">
+        <v>0</v>
+      </c>
+      <c r="L10" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="3">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3">
-        <v>0</v>
-      </c>
-      <c r="L11" s="3"/>
+      <c r="B11" s="4">
+        <v>2</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4">
+        <v>84</v>
+      </c>
+      <c r="E11" s="4">
+        <v>44</v>
+      </c>
+      <c r="F11" s="4">
+        <v>179</v>
+      </c>
+      <c r="G11" s="4">
+        <v>103</v>
+      </c>
+      <c r="H11" s="4">
+        <v>381</v>
+      </c>
+      <c r="I11" s="4">
+        <v>404</v>
+      </c>
+      <c r="J11" s="61">
+        <v>0</v>
+      </c>
+      <c r="K11" s="61">
+        <v>0</v>
+      </c>
+      <c r="L11" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="3">
-        <v>0</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3">
-        <v>0</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3"/>
+      <c r="B12" s="4">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4">
+        <v>16</v>
+      </c>
+      <c r="D12" s="4">
+        <v>81</v>
+      </c>
+      <c r="E12" s="4">
+        <v>264</v>
+      </c>
+      <c r="F12" s="4">
+        <v>262</v>
+      </c>
+      <c r="G12" s="4">
+        <v>3</v>
+      </c>
+      <c r="H12" s="4">
+        <v>266</v>
+      </c>
+      <c r="I12" s="4">
+        <v>176</v>
+      </c>
+      <c r="J12" s="61">
+        <v>0</v>
+      </c>
+      <c r="K12" s="61">
+        <v>0</v>
+      </c>
+      <c r="L12" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="3">
-        <v>0</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3">
-        <v>0</v>
-      </c>
-      <c r="H13" s="3">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="3">
-        <v>0</v>
-      </c>
-      <c r="L13" s="3"/>
+      <c r="B13" s="4">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>39</v>
+      </c>
+      <c r="E13" s="4">
+        <v>118</v>
+      </c>
+      <c r="F13" s="4">
+        <v>120</v>
+      </c>
+      <c r="G13" s="4">
+        <v>157</v>
+      </c>
+      <c r="H13" s="4">
+        <v>51</v>
+      </c>
+      <c r="I13" s="4">
+        <v>106</v>
+      </c>
+      <c r="J13" s="61">
+        <v>0</v>
+      </c>
+      <c r="K13" s="61">
+        <v>0</v>
+      </c>
+      <c r="L13" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>52.360462189477182</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3"/>
+      <c r="B14" s="4">
+        <v>9</v>
+      </c>
+      <c r="C14" s="4">
+        <v>23</v>
+      </c>
+      <c r="D14" s="4">
+        <v>95</v>
+      </c>
+      <c r="E14" s="4">
+        <v>276</v>
+      </c>
+      <c r="F14" s="4">
+        <v>50</v>
+      </c>
+      <c r="G14" s="4">
+        <v>152</v>
+      </c>
+      <c r="H14" s="4">
+        <v>749</v>
+      </c>
+      <c r="I14" s="4">
+        <v>167</v>
+      </c>
+      <c r="J14" s="61">
+        <v>0</v>
+      </c>
+      <c r="K14" s="61">
+        <v>0</v>
+      </c>
+      <c r="L14" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="3">
-        <v>0</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3"/>
+      <c r="B15" s="4">
+        <v>8</v>
+      </c>
+      <c r="C15" s="4">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4">
+        <v>120</v>
+      </c>
+      <c r="E15" s="4">
+        <v>468</v>
+      </c>
+      <c r="F15" s="4">
+        <v>366</v>
+      </c>
+      <c r="G15" s="4">
+        <v>240</v>
+      </c>
+      <c r="H15" s="4">
+        <v>684</v>
+      </c>
+      <c r="I15" s="4">
+        <v>890</v>
+      </c>
+      <c r="J15" s="61">
+        <v>0</v>
+      </c>
+      <c r="K15" s="61">
+        <v>0</v>
+      </c>
+      <c r="L15" s="61">
+        <v>0</v>
+      </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38820,7 +38851,7 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L15"/>
+      <selection activeCell="B2" sqref="B2:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -52247,9 +52278,9 @@
   </sheetPr>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="184" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M4" sqref="M4"/>
+      <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB948AA1-9D1C-994D-A8EB-BF9E83782726}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7405E-9678-404E-8FC1-192BDAA6A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -22932,7 +22932,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="Y1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -29313,7 +29313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:CM2"/>
     </sheetView>
   </sheetViews>
@@ -29602,274 +29602,274 @@
         <v>149</v>
       </c>
       <c r="B2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="C2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="F2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="G2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="H2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="I2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="J2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="K2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="L2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="M2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="N2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="O2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="P2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="R2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="S2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="T2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="U2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="V2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="W2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="X2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Y2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="Z2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AA2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AB2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AC2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AD2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AE2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AF2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AG2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AH2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AI2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AJ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AK2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AL2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AM2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AN2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AO2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AP2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AQ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AR2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AS2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AT2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AU2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AV2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AW2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AX2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AY2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="AZ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BA2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BB2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BC2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BD2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BE2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BF2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BG2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BH2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BI2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BJ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BK2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BL2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BM2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BN2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BO2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BP2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BQ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BR2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BS2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BT2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BU2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BV2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BW2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BX2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BY2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="BZ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CA2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CB2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CC2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CD2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CE2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CF2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CG2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CH2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CI2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CJ2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CK2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CL2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
       <c r="CM2" s="61">
-        <v>8000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52278,7 +52278,7 @@
   </sheetPr>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="L9" sqref="L9"/>
     </sheetView>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DC7405E-9678-404E-8FC1-192BDAA6A372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6FF1A-9B93-2244-B36B-25751A91BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F6FF1A-9B93-2244-B36B-25751A91BC01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F862F752-5CC6-D042-9079-B978EFBB4248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29314,7 +29314,7 @@
   <dimension ref="A1:CM1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CM2"/>
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F862F752-5CC6-D042-9079-B978EFBB4248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354485B-E4FE-014F-8373-289C04C65C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -29313,8 +29313,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52278,9 +52278,9 @@
   </sheetPr>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1354485B-E4FE-014F-8373-289C04C65C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CA8F0-81CC-7F46-9834-E7788EF5F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -29313,7 +29313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:CM2"/>
     </sheetView>
   </sheetViews>
@@ -52278,7 +52278,7 @@
   </sheetPr>
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
+    <sheetView zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB0CA8F0-81CC-7F46-9834-E7788EF5F1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8143BF-9F3E-7B42-B8A3-EFAD7FB3D352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="940" windowWidth="24500" windowHeight="15200" firstSheet="5" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="23760" windowHeight="15320" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -982,7 +982,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1188,6 +1188,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="15" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
@@ -3682,11 +3689,11 @@
         <v>0</v>
       </c>
       <c r="N2" s="19">
-        <f>'Restricciones - Piezas'!N2*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N2*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O2" s="19">
-        <f>'Restricciones - Piezas'!O2*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O2*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -3743,11 +3750,11 @@
         <v>0</v>
       </c>
       <c r="N3" s="19">
-        <f>'Restricciones - Piezas'!N3*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N3*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O3" s="19">
-        <f>'Restricciones - Piezas'!O3*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O3*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -3804,11 +3811,11 @@
         <v>0</v>
       </c>
       <c r="N4" s="19">
-        <f>'Restricciones - Piezas'!N4*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N4*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O4" s="19">
-        <f>'Restricciones - Piezas'!O4*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O4*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -3865,11 +3872,11 @@
         <v>0</v>
       </c>
       <c r="N5" s="19">
-        <f>'Restricciones - Piezas'!N5*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N5*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O5" s="19">
-        <f>'Restricciones - Piezas'!O5*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O5*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -3926,11 +3933,11 @@
         <v>0</v>
       </c>
       <c r="N6" s="19">
-        <f>'Restricciones - Piezas'!N6*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N6*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O6" s="19">
-        <f>'Restricciones - Piezas'!O6*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O6*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -3987,11 +3994,11 @@
         <v>0</v>
       </c>
       <c r="N7" s="19">
-        <f>'Restricciones - Piezas'!N7*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N7*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O7" s="19">
-        <f>'Restricciones - Piezas'!O7*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O7*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -4048,11 +4055,11 @@
         <v>0</v>
       </c>
       <c r="N8" s="19">
-        <f>'Restricciones - Piezas'!N8*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N8*Productos!Q$20</f>
         <v>140</v>
       </c>
       <c r="O8" s="19">
-        <f>'Restricciones - Piezas'!O8*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O8*Productos!R$20</f>
         <v>250</v>
       </c>
     </row>
@@ -4109,11 +4116,11 @@
         <v>0</v>
       </c>
       <c r="N9" s="19">
-        <f>'Restricciones - Piezas'!N9*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N9*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O9" s="19">
-        <f>'Restricciones - Piezas'!O9*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O9*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -4170,11 +4177,11 @@
         <v>8</v>
       </c>
       <c r="N10" s="19">
-        <f>'Restricciones - Piezas'!N10*Productos!P$20</f>
+        <f>'Restricciones - Piezas'!N10*Productos!Q$20</f>
         <v>0</v>
       </c>
       <c r="O10" s="19">
-        <f>'Restricciones - Piezas'!O10*Productos!Q$20</f>
+        <f>'Restricciones - Piezas'!O10*Productos!R$20</f>
         <v>0</v>
       </c>
     </row>
@@ -29313,8 +29320,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:CM2"/>
+    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29602,274 +29609,274 @@
         <v>149</v>
       </c>
       <c r="B2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="C2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="I2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="J2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="K2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="L2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="M2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="N2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="O2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="P2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Q2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="R2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="S2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="T2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="U2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="V2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="W2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="X2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Y2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="Z2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AA2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AB2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AC2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AD2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AE2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AF2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AG2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AH2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AI2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AJ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AK2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AL2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AM2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AN2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AO2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AP2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AQ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AR2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AS2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AT2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AU2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AV2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AW2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AX2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AY2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="AZ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BA2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BB2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BC2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BD2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BE2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BF2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BG2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BH2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BI2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BJ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BK2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BL2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BM2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BN2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BO2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BP2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BQ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BR2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BS2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BT2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BU2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BV2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BW2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BX2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BY2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="BZ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CA2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CB2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CC2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CD2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CE2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CF2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CG2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CH2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CI2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CJ2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CK2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CL2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
       <c r="CM2" s="61">
-        <v>15000</v>
+        <v>10000</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52276,11 +52283,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AA45"/>
+  <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N3" sqref="N3"/>
+      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P3" sqref="P3:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52292,15 +52299,15 @@
     <col min="11" max="11" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.6640625" customWidth="1"/>
-    <col min="23" max="23" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="7" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.6640625" customWidth="1"/>
+    <col min="24" max="24" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="85" t="s">
         <v>105</v>
       </c>
@@ -52322,10 +52329,11 @@
       <c r="M1" s="89"/>
       <c r="N1" s="89"/>
       <c r="O1" s="90"/>
-      <c r="P1" s="6"/>
+      <c r="P1" s="91"/>
       <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
     </row>
-    <row r="2" spans="1:27" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="86"/>
       <c r="B2" s="6" t="s">
         <v>99</v>
@@ -52369,36 +52377,37 @@
       <c r="O2" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="69" t="s">
+      <c r="P2" s="92"/>
+      <c r="Q2" s="69" t="s">
         <v>165</v>
       </c>
-      <c r="Q2" s="69" t="s">
+      <c r="R2" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="R2" s="69" t="s">
+      <c r="S2" s="69" t="s">
         <v>160</v>
       </c>
-      <c r="S2" s="71"/>
-      <c r="T2" s="70"/>
-      <c r="U2" s="72" t="s">
+      <c r="T2" s="71"/>
+      <c r="U2" s="70"/>
+      <c r="V2" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="V2" s="73" t="s">
+      <c r="W2" s="73" t="s">
         <v>114</v>
       </c>
-      <c r="W2" s="73" t="s">
+      <c r="X2" s="73" t="s">
         <v>115</v>
       </c>
-      <c r="X2" s="73" t="s">
+      <c r="Y2" s="73" t="s">
         <v>161</v>
       </c>
-      <c r="Y2" s="74" t="s">
+      <c r="Z2" s="74" t="s">
         <v>162</v>
       </c>
-      <c r="Z2" s="62"/>
       <c r="AA2" s="62"/>
+      <c r="AB2" s="62"/>
     </row>
-    <row r="3" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>91</v>
       </c>
@@ -52434,7 +52443,7 @@
         <v>3390</v>
       </c>
       <c r="L3" s="44">
-        <f>$W$3*$U$3*K3/$K$3</f>
+        <f>$X$3*$V$3*K3/$K$3</f>
         <v>6380.6156333333329</v>
       </c>
       <c r="M3" s="80">
@@ -52448,43 +52457,47 @@
       <c r="O3" s="64">
         <v>5450</v>
       </c>
-      <c r="P3" s="8">
+      <c r="P3" s="93">
+        <f>L3/(M3)</f>
+        <v>77.476623080585142</v>
+      </c>
+      <c r="Q3" s="8">
         <f>L3/M3</f>
         <v>77.476623080585142</v>
       </c>
-      <c r="Q3" s="8">
-        <f>P3/20*1000</f>
+      <c r="R3" s="8">
+        <f>Q3/20*1000</f>
         <v>3873.831154029257</v>
       </c>
-      <c r="R3" s="49">
-        <f t="shared" ref="R3:R16" si="1">N3*O3*$S$3</f>
+      <c r="S3" s="49">
+        <f t="shared" ref="S3:S16" si="1">N3*O3*$T$3</f>
         <v>33255900</v>
       </c>
-      <c r="S3" s="3">
+      <c r="T3" s="3">
         <v>90</v>
       </c>
-      <c r="T3" s="8"/>
-      <c r="U3" s="75">
+      <c r="U3" s="8"/>
+      <c r="V3" s="75">
         <v>11601.119333333332</v>
       </c>
-      <c r="V3" s="76">
+      <c r="W3" s="76">
         <v>7.063333333333334E-2</v>
       </c>
-      <c r="W3" s="76">
+      <c r="X3" s="76">
         <v>0.55000000000000004</v>
       </c>
-      <c r="X3" s="77">
-        <f>U3/V3/20</f>
+      <c r="Y3" s="77">
+        <f>V3/W3/20</f>
         <v>8212.2128362435087</v>
       </c>
-      <c r="Y3" s="78">
-        <f>X3*W3</f>
+      <c r="Z3" s="78">
+        <f>Y3*X3</f>
         <v>4516.7170599339306</v>
       </c>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="67"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="67"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>92</v>
       </c>
@@ -52534,25 +52547,29 @@
       <c r="O4" s="45">
         <v>3933.6220000000003</v>
       </c>
-      <c r="P4" s="8">
-        <f t="shared" ref="P4:P16" si="4">L4/M4</f>
+      <c r="P4" s="93">
+        <f t="shared" ref="P4:P16" si="4">L4/(M4)</f>
         <v>80.929950787533642</v>
       </c>
       <c r="Q4" s="8">
-        <f t="shared" ref="Q4:Q16" si="5">P4/20*1000</f>
+        <f t="shared" ref="Q4:Q16" si="5">L4/M4</f>
+        <v>80.929950787533642</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" ref="R4:R16" si="6">Q4/20*1000</f>
         <v>4046.4975393766827</v>
       </c>
-      <c r="R4" s="49">
+      <c r="S4" s="49">
         <f t="shared" si="1"/>
         <v>24711013.404000003</v>
       </c>
-      <c r="T4" s="8"/>
-      <c r="U4" s="32"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="67"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="32"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="67"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="10" t="s">
         <v>93</v>
       </c>
@@ -52602,25 +52619,29 @@
       <c r="O5" s="45">
         <v>2145.6119999999996</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="93">
         <f t="shared" si="4"/>
         <v>84.433114356600086</v>
       </c>
       <c r="Q5" s="8">
         <f t="shared" si="5"/>
+        <v>84.433114356600086</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="6"/>
         <v>4221.6557178300045</v>
       </c>
-      <c r="R5" s="49">
+      <c r="S5" s="49">
         <f t="shared" si="1"/>
         <v>13864944.743999997</v>
       </c>
-      <c r="T5" s="8"/>
-      <c r="V5" s="35"/>
-      <c r="Y5" s="65"/>
-      <c r="Z5" s="66"/>
-      <c r="AA5" s="67"/>
+      <c r="U5" s="8"/>
+      <c r="W5" s="35"/>
+      <c r="Z5" s="65"/>
+      <c r="AA5" s="66"/>
+      <c r="AB5" s="67"/>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="10" t="s">
         <v>94</v>
       </c>
@@ -52670,24 +52691,28 @@
       <c r="O6" s="45">
         <v>715.20400000000006</v>
       </c>
-      <c r="P6" s="8">
+      <c r="P6" s="93">
         <f t="shared" si="4"/>
         <v>87.985414654400159</v>
       </c>
       <c r="Q6" s="8">
         <f t="shared" si="5"/>
+        <v>87.985414654400159</v>
+      </c>
+      <c r="R6" s="8">
+        <f t="shared" si="6"/>
         <v>4399.2707327200078</v>
       </c>
-      <c r="R6" s="49">
+      <c r="S6" s="49">
         <f t="shared" si="1"/>
         <v>4750384.9680000003</v>
       </c>
-      <c r="T6" s="8"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="66"/>
-      <c r="AA6" s="67"/>
+      <c r="U6" s="8"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="66"/>
+      <c r="AB6" s="67"/>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>95</v>
       </c>
@@ -52737,24 +52762,28 @@
       <c r="O7" s="45">
         <v>4648.8260000000009</v>
       </c>
-      <c r="P7" s="8">
+      <c r="P7" s="93">
         <f t="shared" si="4"/>
         <v>91.586181172806434</v>
       </c>
       <c r="Q7" s="8">
         <f t="shared" si="5"/>
+        <v>91.586181172806434</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="6"/>
         <v>4579.3090586403214</v>
       </c>
-      <c r="R7" s="49">
+      <c r="S7" s="49">
         <f t="shared" si="1"/>
         <v>31714290.972000003</v>
       </c>
-      <c r="T7" s="8"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="66"/>
-      <c r="AA7" s="67"/>
+      <c r="U7" s="8"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="66"/>
+      <c r="AB7" s="67"/>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>96</v>
       </c>
@@ -52804,24 +52833,28 @@
       <c r="O8" s="45">
         <v>3218.4179999999997</v>
       </c>
-      <c r="P8" s="8">
+      <c r="P8" s="93">
         <f t="shared" si="4"/>
         <v>95.234770127187701</v>
       </c>
       <c r="Q8" s="8">
         <f t="shared" si="5"/>
+        <v>95.234770127187701</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="6"/>
         <v>4761.7385063593847</v>
       </c>
-      <c r="R8" s="49">
+      <c r="S8" s="49">
         <f t="shared" si="1"/>
         <v>22535362.835999999</v>
       </c>
-      <c r="T8" s="8"/>
-      <c r="Y8" s="65"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="67"/>
+      <c r="U8" s="8"/>
+      <c r="Z8" s="65"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="67"/>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>97</v>
       </c>
@@ -52871,24 +52904,28 @@
       <c r="O9" s="45">
         <v>6436.8359999999993</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="93">
         <f t="shared" si="4"/>
         <v>98.930562726978494</v>
       </c>
       <c r="Q9" s="8">
         <f t="shared" si="5"/>
+        <v>98.930562726978494</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="6"/>
         <v>4946.5281363489248</v>
       </c>
-      <c r="R9" s="49">
+      <c r="S9" s="49">
         <f t="shared" si="1"/>
         <v>46229356.151999995</v>
       </c>
-      <c r="T9" s="8"/>
-      <c r="Y9" s="65"/>
-      <c r="Z9" s="66"/>
-      <c r="AA9" s="67"/>
+      <c r="U9" s="8"/>
+      <c r="Z9" s="65"/>
+      <c r="AA9" s="66"/>
+      <c r="AB9" s="67"/>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
         <v>98</v>
       </c>
@@ -52938,25 +52975,29 @@
       <c r="O10" s="45">
         <v>2503.2140000000004</v>
       </c>
-      <c r="P10" s="8">
+      <c r="P10" s="93">
         <f t="shared" si="4"/>
         <v>106.46139934664359</v>
       </c>
       <c r="Q10" s="8">
         <f t="shared" si="5"/>
+        <v>106.46139934664359</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="6"/>
         <v>5323.0699673321787</v>
       </c>
-      <c r="R10" s="49">
+      <c r="S10" s="49">
         <f t="shared" si="1"/>
         <v>18879239.988000002</v>
       </c>
-      <c r="S10" s="3"/>
-      <c r="T10" s="8"/>
-      <c r="Y10" s="65"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="67"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="8"/>
+      <c r="Z10" s="65"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="67"/>
     </row>
-    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
@@ -53005,24 +53046,28 @@
       <c r="O11" s="45">
         <v>2503.2140000000004</v>
       </c>
-      <c r="P11" s="8">
+      <c r="P11" s="93">
         <f t="shared" si="4"/>
         <v>110.2953172301295</v>
       </c>
       <c r="Q11" s="8">
         <f t="shared" si="5"/>
+        <v>110.2953172301295</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="6"/>
         <v>5514.7658615064747</v>
       </c>
-      <c r="R11" s="49">
+      <c r="S11" s="49">
         <f t="shared" si="1"/>
         <v>19329818.508000005</v>
       </c>
-      <c r="T11" s="8"/>
-      <c r="Y11" s="65"/>
-      <c r="Z11" s="66"/>
-      <c r="AA11" s="67"/>
+      <c r="U11" s="8"/>
+      <c r="Z11" s="65"/>
+      <c r="AA11" s="66"/>
+      <c r="AB11" s="67"/>
     </row>
-    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>100</v>
       </c>
@@ -53071,24 +53116,28 @@
       <c r="O12" s="45">
         <v>715.20400000000006</v>
       </c>
-      <c r="P12" s="8">
+      <c r="P12" s="93">
         <f t="shared" si="4"/>
         <v>110.2953172301295</v>
       </c>
       <c r="Q12" s="8">
         <f t="shared" si="5"/>
+        <v>110.2953172301295</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="6"/>
         <v>5514.7658615064747</v>
       </c>
-      <c r="R12" s="49">
+      <c r="S12" s="49">
         <f t="shared" si="1"/>
         <v>5522805.2880000006</v>
       </c>
-      <c r="T12" s="8"/>
-      <c r="Y12" s="65"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="67"/>
+      <c r="U12" s="8"/>
+      <c r="Z12" s="65"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="67"/>
     </row>
-    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>101</v>
       </c>
@@ -53137,24 +53186,28 @@
       <c r="O13" s="45">
         <v>715.20400000000006</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="93">
         <f t="shared" si="4"/>
         <v>114.17418395521865</v>
       </c>
       <c r="Q13" s="8">
         <f t="shared" si="5"/>
+        <v>114.17418395521865</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="6"/>
         <v>5708.7091977609325</v>
       </c>
-      <c r="R13" s="49">
+      <c r="S13" s="49">
         <f t="shared" si="1"/>
         <v>5651542.0080000004</v>
       </c>
-      <c r="T13" s="8"/>
-      <c r="Y13" s="65"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="67"/>
+      <c r="U13" s="8"/>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
     </row>
-    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="10" t="s">
         <v>102</v>
       </c>
@@ -53203,25 +53256,29 @@
       <c r="O14" s="45">
         <v>357.60200000000003</v>
       </c>
-      <c r="P14" s="8">
+      <c r="P14" s="93">
         <f t="shared" si="4"/>
         <v>118.09748455903106</v>
       </c>
       <c r="Q14" s="8">
         <f t="shared" si="5"/>
+        <v>118.09748455903106</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="6"/>
         <v>5904.8742279515527</v>
       </c>
-      <c r="R14" s="49">
+      <c r="S14" s="49">
         <f t="shared" si="1"/>
         <v>2890139.3640000001</v>
       </c>
-      <c r="T14" s="8"/>
-      <c r="U14" s="32"/>
-      <c r="Y14" s="65"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="67"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="32"/>
+      <c r="Z14" s="65"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
     </row>
-    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
         <v>103</v>
       </c>
@@ -53270,24 +53327,28 @@
       <c r="O15" s="45">
         <v>1430.4080000000001</v>
       </c>
-      <c r="P15" s="8">
+      <c r="P15" s="93">
         <f t="shared" si="4"/>
         <v>114.17418395521865</v>
       </c>
       <c r="Q15" s="8">
         <f t="shared" si="5"/>
+        <v>114.17418395521865</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="6"/>
         <v>5708.7091977609325</v>
       </c>
-      <c r="R15" s="49">
+      <c r="S15" s="49">
         <f t="shared" si="1"/>
         <v>11303084.016000001</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="Y15" s="65"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="67"/>
+      <c r="U15" s="8"/>
+      <c r="Z15" s="65"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="67"/>
     </row>
-    <row r="16" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>104</v>
       </c>
@@ -53336,24 +53397,28 @@
       <c r="O16" s="47">
         <v>1251.6070000000002</v>
       </c>
-      <c r="P16" s="8">
+      <c r="P16" s="93">
         <f t="shared" si="4"/>
         <v>106.46139934664359</v>
       </c>
       <c r="Q16" s="8">
         <f t="shared" si="5"/>
+        <v>106.46139934664359</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="6"/>
         <v>5323.0699673321787</v>
       </c>
-      <c r="R16" s="49">
+      <c r="S16" s="49">
         <f t="shared" si="1"/>
         <v>9439619.9940000009</v>
       </c>
-      <c r="T16" s="8"/>
-      <c r="Y16" s="65"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="67"/>
+      <c r="U16" s="8"/>
+      <c r="Z16" s="65"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="67"/>
     </row>
-    <row r="17" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="17" spans="5:19" x14ac:dyDescent="0.2">
       <c r="J17" s="9"/>
       <c r="K17" s="9"/>
       <c r="L17" s="48">
@@ -53364,17 +53429,18 @@
         <f>SUM(O3:O16)</f>
         <v>36024.971000000005</v>
       </c>
-      <c r="R17" s="79">
-        <f>SUM(R3:R16)</f>
+      <c r="P17" s="48"/>
+      <c r="S17" s="79">
+        <f>SUM(S3:S16)</f>
         <v>250077502.24199995</v>
       </c>
     </row>
-    <row r="18" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="5:19" x14ac:dyDescent="0.2">
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
-      <c r="R18" s="49"/>
+      <c r="S18" s="49"/>
     </row>
-    <row r="19" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E19" s="10" t="s">
         <v>91</v>
       </c>
@@ -53408,14 +53474,15 @@
       <c r="O19" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="P19" s="10" t="s">
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="Q19" s="10" t="s">
+      <c r="R19" s="10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="20" spans="5:19" x14ac:dyDescent="0.2">
       <c r="E20" s="8">
         <v>1860</v>
       </c>
@@ -53449,79 +53516,80 @@
       <c r="O20" s="8">
         <v>8</v>
       </c>
-      <c r="P20" s="8">
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8">
         <v>140</v>
       </c>
-      <c r="Q20" s="8">
+      <c r="R20" s="8">
         <v>250</v>
       </c>
     </row>
-    <row r="21" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="5:19" x14ac:dyDescent="0.2">
       <c r="J21" s="3">
         <v>0.9</v>
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="5:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="5:19" x14ac:dyDescent="0.2">
       <c r="J22" s="3">
         <v>0.96</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="31"/>
     </row>
-    <row r="23" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="L23" s="32"/>
-      <c r="P23" s="68"/>
       <c r="Q23" s="68"/>
+      <c r="R23" s="68"/>
     </row>
-    <row r="24" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P24" s="68"/>
+    <row r="24" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q24" s="68"/>
+      <c r="R24" s="68"/>
     </row>
-    <row r="31" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R31" s="49"/>
+    <row r="31" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S31" s="49"/>
     </row>
-    <row r="32" spans="5:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R32" s="49"/>
+    <row r="32" spans="5:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S32" s="49"/>
     </row>
-    <row r="33" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R33" s="49"/>
+    <row r="33" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S33" s="49"/>
     </row>
-    <row r="34" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R34" s="49"/>
+    <row r="34" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S34" s="49"/>
     </row>
-    <row r="35" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R35" s="49"/>
+    <row r="35" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S35" s="49"/>
     </row>
-    <row r="36" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R36" s="49"/>
+    <row r="36" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S36" s="49"/>
     </row>
-    <row r="37" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R37" s="49"/>
+    <row r="37" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S37" s="49"/>
     </row>
-    <row r="38" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R38" s="49"/>
+    <row r="38" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S38" s="49"/>
     </row>
-    <row r="39" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R39" s="49"/>
+    <row r="39" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S39" s="49"/>
     </row>
-    <row r="40" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R40" s="49"/>
+    <row r="40" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S40" s="49"/>
     </row>
-    <row r="41" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R41" s="49"/>
+    <row r="41" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S41" s="49"/>
     </row>
-    <row r="42" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R42" s="49"/>
+    <row r="42" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S42" s="49"/>
     </row>
-    <row r="43" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R43" s="49"/>
+    <row r="43" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S43" s="49"/>
     </row>
-    <row r="44" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R44" s="49"/>
+    <row r="44" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S44" s="49"/>
     </row>
-    <row r="45" spans="18:18" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="R45" s="49"/>
+    <row r="45" spans="19:19" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="S45" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D8143BF-9F3E-7B42-B8A3-EFAD7FB3D352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465B2C9-3023-6E4F-835F-CA7DEE07B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="23760" windowHeight="15320" firstSheet="4" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="800" windowWidth="23760" windowHeight="15320" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -570,7 +570,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="13">
     <numFmt numFmtId="42" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
@@ -582,6 +582,8 @@
     <numFmt numFmtId="170" formatCode="_-[$USD]\ * #,##0_-;\-[$USD]\ * #,##0_-;_-[$USD]\ * &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="173" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="175" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -982,7 +984,7 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1177,6 +1179,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="173" fontId="15" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1188,11 +1196,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="15" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1417,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AC1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="P1" workbookViewId="0">
       <selection activeCell="AA11" sqref="AA11"/>
     </sheetView>
   </sheetViews>
@@ -22939,7 +22946,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView topLeftCell="Y1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -23224,7 +23233,7 @@
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="30">
+      <c r="B2" s="93">
         <f>Productos!$M3</f>
         <v>82.355365781710873</v>
       </c>
@@ -23589,7 +23598,7 @@
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3" s="93">
         <f>Productos!$M4</f>
         <v>81.166914345770365</v>
       </c>
@@ -23954,7 +23963,7 @@
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4" s="93">
         <f>Productos!$M5</f>
         <v>80.028472067094626</v>
       </c>
@@ -24319,7 +24328,7 @@
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="30">
+      <c r="B5" s="93">
         <f>Productos!$M6</f>
         <v>78.936627296140855</v>
       </c>
@@ -24684,7 +24693,7 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="30">
+      <c r="B6" s="93">
         <f>Productos!$M7</f>
         <v>77.888285579426224</v>
       </c>
@@ -25049,7 +25058,7 @@
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="30">
+      <c r="B7" s="93">
         <f>Productos!$M8</f>
         <v>76.880632722525263</v>
       </c>
@@ -25414,7 +25423,7 @@
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="30">
+      <c r="B8" s="93">
         <f>Productos!$M9</f>
         <v>75.911102977687719</v>
       </c>
@@ -25779,7 +25788,7 @@
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="30">
+      <c r="B9" s="93">
         <f>Productos!$M10</f>
         <v>74.077230655418163</v>
       </c>
@@ -26144,7 +26153,7 @@
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="30">
+      <c r="B10" s="93">
         <f>Productos!$M11</f>
         <v>73.208768860950144</v>
       </c>
@@ -26509,7 +26518,7 @@
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="30">
+      <c r="B11" s="93">
         <f>Productos!$M12</f>
         <v>73.208768860950144</v>
       </c>
@@ -26874,7 +26883,7 @@
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="30">
+      <c r="B12" s="93">
         <f>Productos!$M13</f>
         <v>72.370152774924804</v>
       </c>
@@ -27239,7 +27248,7 @@
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="30">
+      <c r="B13" s="93">
         <f>Productos!$M14</f>
         <v>71.559711179225999</v>
       </c>
@@ -27604,7 +27613,7 @@
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="30">
+      <c r="B14" s="93">
         <f>Productos!$M15</f>
         <v>72.370152774924804</v>
       </c>
@@ -27969,7 +27978,7 @@
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="30">
+      <c r="B15" s="93">
         <f>Productos!$M16</f>
         <v>74.077230655418163</v>
       </c>
@@ -29320,8 +29329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:CM1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView zoomScale="144" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:CM2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -29609,274 +29618,274 @@
         <v>149</v>
       </c>
       <c r="B2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="C2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="D2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="E2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="F2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="G2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="H2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="I2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="J2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="K2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="L2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="M2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="N2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="O2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="P2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Q2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="R2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="S2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="T2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="U2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="V2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="W2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="X2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Y2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="Z2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AA2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AB2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AC2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AD2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AE2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AF2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AG2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AH2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AI2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AJ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AK2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AL2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AM2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AN2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AO2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AP2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AQ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AR2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AS2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AT2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AU2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AV2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AW2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AX2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AY2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="AZ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BA2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BB2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BC2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BD2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BE2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BF2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BG2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BH2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BI2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BJ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BK2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BL2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BM2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BN2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BO2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BP2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BQ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BR2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BS2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BT2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BU2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BV2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BW2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BX2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BY2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="BZ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CA2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CB2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CC2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CD2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CE2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CF2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CG2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CH2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CI2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CJ2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CK2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CL2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
       <c r="CM2" s="61">
-        <v>10000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30869,8 +30878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30921,28 +30930,28 @@
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="4">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="94">
+        <v>0</v>
+      </c>
+      <c r="C2" s="94">
         <v>94</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="94">
         <v>335</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="94">
         <v>1011</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="94">
         <v>2804</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="94">
         <v>3343</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="94">
         <v>3690</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="94">
         <v>5036</v>
       </c>
       <c r="J2" s="61">
@@ -30959,28 +30968,28 @@
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="94">
         <v>10</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="94">
         <v>62</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="94">
         <v>354</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="94">
         <v>156</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="94">
         <v>1713</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="94">
         <v>1603</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="94">
         <v>1890</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="94">
         <v>1854</v>
       </c>
       <c r="J3" s="61">
@@ -30997,28 +31006,28 @@
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="94">
         <v>3</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="94">
         <v>57</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="94">
         <v>64</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="94">
         <v>556</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="94">
         <v>76</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="94">
         <v>818</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="94">
         <v>1382</v>
       </c>
-      <c r="I4" s="4">
+      <c r="I4" s="94">
         <v>1449</v>
       </c>
       <c r="J4" s="61">
@@ -31035,28 +31044,28 @@
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="94">
         <v>5</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="94">
         <v>3</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="94">
         <v>17</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="94">
         <v>45</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="94">
         <v>123</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="94">
         <v>382</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="94">
         <v>54</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="94">
         <v>513</v>
       </c>
       <c r="J5" s="61">
@@ -31073,28 +31082,28 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="94">
         <v>26</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="94">
         <v>87</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="94">
         <v>348</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="94">
         <v>477</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="94">
         <v>735</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="94">
         <v>457</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="94">
         <v>1911</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="94">
         <v>2835</v>
       </c>
       <c r="J6" s="61">
@@ -31111,28 +31120,28 @@
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="94">
         <v>26</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="94">
         <v>41</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="94">
         <v>431</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="94">
         <v>237</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="94">
         <v>847</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="94">
         <v>1221</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="94">
         <v>1274</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="94">
         <v>1806</v>
       </c>
       <c r="J7" s="61">
@@ -31149,28 +31158,28 @@
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="94">
         <v>37</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="94">
         <v>84</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="94">
         <v>141</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="94">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="94">
         <v>926</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="94">
         <v>1243</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="94">
         <v>2532</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="94">
         <v>2655</v>
       </c>
       <c r="J8" s="61">
@@ -31187,28 +31196,28 @@
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="94">
         <v>5</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="94">
         <v>27</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="94">
         <v>129</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="94">
         <v>511</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="94">
         <v>599</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="94">
         <v>20</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="94">
         <v>1610</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="94">
         <v>701</v>
       </c>
       <c r="J9" s="61">
@@ -31225,28 +31234,28 @@
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="94">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="94">
         <v>11</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="94">
         <v>269</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="94">
         <v>3</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="94">
         <v>797</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="94">
         <v>1344</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="94">
         <v>929</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="94">
         <v>777</v>
       </c>
       <c r="J10" s="61">
@@ -31263,28 +31272,28 @@
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="94">
         <v>2</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="94">
         <v>2</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="94">
         <v>84</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="94">
         <v>44</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="94">
         <v>179</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="94">
         <v>103</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="94">
         <v>381</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="94">
         <v>404</v>
       </c>
       <c r="J11" s="61">
@@ -31301,28 +31310,28 @@
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="94">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="94">
         <v>16</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="94">
         <v>81</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="94">
         <v>264</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="94">
         <v>262</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="94">
         <v>3</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="94">
         <v>266</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="94">
         <v>176</v>
       </c>
       <c r="J12" s="61">
@@ -31339,28 +31348,28 @@
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="94">
         <v>3</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="94">
         <v>1</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="94">
         <v>39</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="94">
         <v>118</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="94">
         <v>120</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="94">
         <v>157</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="94">
         <v>51</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="94">
         <v>106</v>
       </c>
       <c r="J13" s="61">
@@ -31377,28 +31386,28 @@
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="94">
         <v>9</v>
       </c>
-      <c r="C14" s="4">
+      <c r="C14" s="94">
         <v>23</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="94">
         <v>95</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="94">
         <v>276</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="94">
         <v>50</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="94">
         <v>152</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="94">
         <v>749</v>
       </c>
-      <c r="I14" s="4">
+      <c r="I14" s="94">
         <v>167</v>
       </c>
       <c r="J14" s="61">
@@ -31415,28 +31424,28 @@
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="94">
         <v>8</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="94">
         <v>31</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="94">
         <v>120</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="94">
         <v>468</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="94">
         <v>366</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="94">
         <v>240</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="94">
         <v>684</v>
       </c>
-      <c r="I15" s="4">
+      <c r="I15" s="94">
         <v>890</v>
       </c>
       <c r="J15" s="61">
@@ -52286,8 +52295,8 @@
   <dimension ref="A1:AB45"/>
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P3" sqref="P3:P16"/>
+      <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P9" sqref="H9:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52308,33 +52317,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="87" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="87" t="s">
+      <c r="B1" s="89" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="88" t="s">
+      <c r="L1" s="90" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="90"/>
-      <c r="P1" s="91"/>
+      <c r="M1" s="91"/>
+      <c r="N1" s="91"/>
+      <c r="O1" s="92"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="86"/>
+      <c r="A2" s="88"/>
       <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
@@ -52377,7 +52385,7 @@
       <c r="O2" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="P2" s="92"/>
+      <c r="P2" s="85"/>
       <c r="Q2" s="69" t="s">
         <v>165</v>
       </c>
@@ -52457,7 +52465,7 @@
       <c r="O3" s="64">
         <v>5450</v>
       </c>
-      <c r="P3" s="93">
+      <c r="P3" s="86">
         <f>L3/(M3)</f>
         <v>77.476623080585142</v>
       </c>
@@ -52547,7 +52555,7 @@
       <c r="O4" s="45">
         <v>3933.6220000000003</v>
       </c>
-      <c r="P4" s="93">
+      <c r="P4" s="86">
         <f t="shared" ref="P4:P16" si="4">L4/(M4)</f>
         <v>80.929950787533642</v>
       </c>
@@ -52619,7 +52627,7 @@
       <c r="O5" s="45">
         <v>2145.6119999999996</v>
       </c>
-      <c r="P5" s="93">
+      <c r="P5" s="86">
         <f t="shared" si="4"/>
         <v>84.433114356600086</v>
       </c>
@@ -52691,7 +52699,7 @@
       <c r="O6" s="45">
         <v>715.20400000000006</v>
       </c>
-      <c r="P6" s="93">
+      <c r="P6" s="86">
         <f t="shared" si="4"/>
         <v>87.985414654400159</v>
       </c>
@@ -52762,7 +52770,7 @@
       <c r="O7" s="45">
         <v>4648.8260000000009</v>
       </c>
-      <c r="P7" s="93">
+      <c r="P7" s="86">
         <f t="shared" si="4"/>
         <v>91.586181172806434</v>
       </c>
@@ -52833,7 +52841,7 @@
       <c r="O8" s="45">
         <v>3218.4179999999997</v>
       </c>
-      <c r="P8" s="93">
+      <c r="P8" s="86">
         <f t="shared" si="4"/>
         <v>95.234770127187701</v>
       </c>
@@ -52904,7 +52912,7 @@
       <c r="O9" s="45">
         <v>6436.8359999999993</v>
       </c>
-      <c r="P9" s="93">
+      <c r="P9" s="86">
         <f t="shared" si="4"/>
         <v>98.930562726978494</v>
       </c>
@@ -52975,7 +52983,7 @@
       <c r="O10" s="45">
         <v>2503.2140000000004</v>
       </c>
-      <c r="P10" s="93">
+      <c r="P10" s="86">
         <f t="shared" si="4"/>
         <v>106.46139934664359</v>
       </c>
@@ -53046,7 +53054,7 @@
       <c r="O11" s="45">
         <v>2503.2140000000004</v>
       </c>
-      <c r="P11" s="93">
+      <c r="P11" s="86">
         <f t="shared" si="4"/>
         <v>110.2953172301295</v>
       </c>
@@ -53116,7 +53124,7 @@
       <c r="O12" s="45">
         <v>715.20400000000006</v>
       </c>
-      <c r="P12" s="93">
+      <c r="P12" s="86">
         <f t="shared" si="4"/>
         <v>110.2953172301295</v>
       </c>
@@ -53186,7 +53194,7 @@
       <c r="O13" s="45">
         <v>715.20400000000006</v>
       </c>
-      <c r="P13" s="93">
+      <c r="P13" s="86">
         <f t="shared" si="4"/>
         <v>114.17418395521865</v>
       </c>
@@ -53256,7 +53264,7 @@
       <c r="O14" s="45">
         <v>357.60200000000003</v>
       </c>
-      <c r="P14" s="93">
+      <c r="P14" s="86">
         <f t="shared" si="4"/>
         <v>118.09748455903106</v>
       </c>
@@ -53327,7 +53335,7 @@
       <c r="O15" s="45">
         <v>1430.4080000000001</v>
       </c>
-      <c r="P15" s="93">
+      <c r="P15" s="86">
         <f t="shared" si="4"/>
         <v>114.17418395521865</v>
       </c>
@@ -53397,7 +53405,7 @@
       <c r="O16" s="47">
         <v>1251.6070000000002</v>
       </c>
-      <c r="P16" s="93">
+      <c r="P16" s="86">
         <f t="shared" si="4"/>
         <v>106.46139934664359</v>
       </c>

--- a/Input/Constante.xlsx
+++ b/Input/Constante.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moises/Desktop/Produccion-Tesis/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B465B2C9-3023-6E4F-835F-CA7DEE07B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF15FEC-86AB-0A40-B73B-FA49F0F77A84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="800" windowWidth="23760" windowHeight="15320" firstSheet="9" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9560" yWindow="820" windowWidth="19240" windowHeight="15300" firstSheet="7" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Costo Corte" sheetId="5" r:id="rId1"/>
@@ -583,7 +583,7 @@
     <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="172" formatCode="_ * #,##0.000_ ;_ * \-#,##0.000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="173" formatCode="_ * #,##0.00000_ ;_ * \-#,##0.00000_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="175" formatCode="#,##0.000"/>
+    <numFmt numFmtId="174" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="17" x14ac:knownFonts="1">
     <font>
@@ -1184,6 +1184,12 @@
     <xf numFmtId="173" fontId="15" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="174" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1196,12 +1202,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="175" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Bueno" xfId="4" builtinId="26"/>
@@ -23233,7 +23233,7 @@
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="93">
+      <c r="B2" s="87">
         <f>Productos!$M3</f>
         <v>82.355365781710873</v>
       </c>
@@ -23598,7 +23598,7 @@
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="93">
+      <c r="B3" s="87">
         <f>Productos!$M4</f>
         <v>81.166914345770365</v>
       </c>
@@ -23963,7 +23963,7 @@
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="93">
+      <c r="B4" s="87">
         <f>Productos!$M5</f>
         <v>80.028472067094626</v>
       </c>
@@ -24328,7 +24328,7 @@
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="93">
+      <c r="B5" s="87">
         <f>Productos!$M6</f>
         <v>78.936627296140855</v>
       </c>
@@ -24693,7 +24693,7 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="93">
+      <c r="B6" s="87">
         <f>Productos!$M7</f>
         <v>77.888285579426224</v>
       </c>
@@ -25058,7 +25058,7 @@
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="93">
+      <c r="B7" s="87">
         <f>Productos!$M8</f>
         <v>76.880632722525263</v>
       </c>
@@ -25423,7 +25423,7 @@
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="93">
+      <c r="B8" s="87">
         <f>Productos!$M9</f>
         <v>75.911102977687719</v>
       </c>
@@ -25788,7 +25788,7 @@
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="93">
+      <c r="B9" s="87">
         <f>Productos!$M10</f>
         <v>74.077230655418163</v>
       </c>
@@ -26153,7 +26153,7 @@
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="93">
+      <c r="B10" s="87">
         <f>Productos!$M11</f>
         <v>73.208768860950144</v>
       </c>
@@ -26518,7 +26518,7 @@
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="93">
+      <c r="B11" s="87">
         <f>Productos!$M12</f>
         <v>73.208768860950144</v>
       </c>
@@ -26883,7 +26883,7 @@
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="93">
+      <c r="B12" s="87">
         <f>Productos!$M13</f>
         <v>72.370152774924804</v>
       </c>
@@ -27248,7 +27248,7 @@
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="93">
+      <c r="B13" s="87">
         <f>Productos!$M14</f>
         <v>71.559711179225999</v>
       </c>
@@ -27613,7 +27613,7 @@
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="93">
+      <c r="B14" s="87">
         <f>Productos!$M15</f>
         <v>72.370152774924804</v>
       </c>
@@ -27978,7 +27978,7 @@
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="93">
+      <c r="B15" s="87">
         <f>Productos!$M16</f>
         <v>74.077230655418163</v>
       </c>
@@ -30879,7 +30879,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L15"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30930,28 +30930,28 @@
       <c r="A2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="94">
-        <v>0</v>
-      </c>
-      <c r="C2" s="94">
+      <c r="B2" s="88">
+        <v>0</v>
+      </c>
+      <c r="C2" s="88">
         <v>94</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="88">
         <v>335</v>
       </c>
-      <c r="E2" s="94">
+      <c r="E2" s="88">
         <v>1011</v>
       </c>
-      <c r="F2" s="94">
+      <c r="F2" s="88">
         <v>2804</v>
       </c>
-      <c r="G2" s="94">
+      <c r="G2" s="88">
         <v>3343</v>
       </c>
-      <c r="H2" s="94">
+      <c r="H2" s="88">
         <v>3690</v>
       </c>
-      <c r="I2" s="94">
+      <c r="I2" s="88">
         <v>5036</v>
       </c>
       <c r="J2" s="61">
@@ -30968,28 +30968,28 @@
       <c r="A3" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="94">
+      <c r="B3" s="88">
         <v>10</v>
       </c>
-      <c r="C3" s="94">
+      <c r="C3" s="88">
         <v>62</v>
       </c>
-      <c r="D3" s="94">
+      <c r="D3" s="88">
         <v>354</v>
       </c>
-      <c r="E3" s="94">
+      <c r="E3" s="88">
         <v>156</v>
       </c>
-      <c r="F3" s="94">
+      <c r="F3" s="88">
         <v>1713</v>
       </c>
-      <c r="G3" s="94">
+      <c r="G3" s="88">
         <v>1603</v>
       </c>
-      <c r="H3" s="94">
+      <c r="H3" s="88">
         <v>1890</v>
       </c>
-      <c r="I3" s="94">
+      <c r="I3" s="88">
         <v>1854</v>
       </c>
       <c r="J3" s="61">
@@ -31006,28 +31006,28 @@
       <c r="A4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="94">
+      <c r="B4" s="88">
         <v>3</v>
       </c>
-      <c r="C4" s="94">
+      <c r="C4" s="88">
         <v>57</v>
       </c>
-      <c r="D4" s="94">
+      <c r="D4" s="88">
         <v>64</v>
       </c>
-      <c r="E4" s="94">
+      <c r="E4" s="88">
         <v>556</v>
       </c>
-      <c r="F4" s="94">
+      <c r="F4" s="88">
         <v>76</v>
       </c>
-      <c r="G4" s="94">
+      <c r="G4" s="88">
         <v>818</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="88">
         <v>1382</v>
       </c>
-      <c r="I4" s="94">
+      <c r="I4" s="88">
         <v>1449</v>
       </c>
       <c r="J4" s="61">
@@ -31044,28 +31044,28 @@
       <c r="A5" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="94">
+      <c r="B5" s="88">
         <v>5</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="88">
         <v>3</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="88">
         <v>17</v>
       </c>
-      <c r="E5" s="94">
+      <c r="E5" s="88">
         <v>45</v>
       </c>
-      <c r="F5" s="94">
+      <c r="F5" s="88">
         <v>123</v>
       </c>
-      <c r="G5" s="94">
+      <c r="G5" s="88">
         <v>382</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="88">
         <v>54</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="88">
         <v>513</v>
       </c>
       <c r="J5" s="61">
@@ -31082,28 +31082,28 @@
       <c r="A6" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="94">
+      <c r="B6" s="88">
         <v>26</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="88">
         <v>87</v>
       </c>
-      <c r="D6" s="94">
+      <c r="D6" s="88">
         <v>348</v>
       </c>
-      <c r="E6" s="94">
+      <c r="E6" s="88">
         <v>477</v>
       </c>
-      <c r="F6" s="94">
+      <c r="F6" s="88">
         <v>735</v>
       </c>
-      <c r="G6" s="94">
+      <c r="G6" s="88">
         <v>457</v>
       </c>
-      <c r="H6" s="94">
+      <c r="H6" s="88">
         <v>1911</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="88">
         <v>2835</v>
       </c>
       <c r="J6" s="61">
@@ -31120,28 +31120,28 @@
       <c r="A7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="94">
+      <c r="B7" s="88">
         <v>26</v>
       </c>
-      <c r="C7" s="94">
+      <c r="C7" s="88">
         <v>41</v>
       </c>
-      <c r="D7" s="94">
+      <c r="D7" s="88">
         <v>431</v>
       </c>
-      <c r="E7" s="94">
+      <c r="E7" s="88">
         <v>237</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="88">
         <v>847</v>
       </c>
-      <c r="G7" s="94">
+      <c r="G7" s="88">
         <v>1221</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="88">
         <v>1274</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="88">
         <v>1806</v>
       </c>
       <c r="J7" s="61">
@@ -31158,28 +31158,28 @@
       <c r="A8" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="94">
+      <c r="B8" s="88">
         <v>37</v>
       </c>
-      <c r="C8" s="94">
+      <c r="C8" s="88">
         <v>84</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="88">
         <v>141</v>
       </c>
-      <c r="E8" s="94">
+      <c r="E8" s="88">
         <v>1.2909999999999999</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="88">
         <v>926</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="88">
         <v>1243</v>
       </c>
-      <c r="H8" s="94">
+      <c r="H8" s="88">
         <v>2532</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="88">
         <v>2655</v>
       </c>
       <c r="J8" s="61">
@@ -31196,28 +31196,28 @@
       <c r="A9" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="94">
+      <c r="B9" s="88">
         <v>5</v>
       </c>
-      <c r="C9" s="94">
+      <c r="C9" s="88">
         <v>27</v>
       </c>
-      <c r="D9" s="94">
+      <c r="D9" s="88">
         <v>129</v>
       </c>
-      <c r="E9" s="94">
+      <c r="E9" s="88">
         <v>511</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="88">
         <v>599</v>
       </c>
-      <c r="G9" s="94">
+      <c r="G9" s="88">
         <v>20</v>
       </c>
-      <c r="H9" s="94">
+      <c r="H9" s="88">
         <v>1610</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="88">
         <v>701</v>
       </c>
       <c r="J9" s="61">
@@ -31234,28 +31234,28 @@
       <c r="A10" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="94">
+      <c r="B10" s="88">
         <v>1</v>
       </c>
-      <c r="C10" s="94">
+      <c r="C10" s="88">
         <v>11</v>
       </c>
-      <c r="D10" s="94">
+      <c r="D10" s="88">
         <v>269</v>
       </c>
-      <c r="E10" s="94">
+      <c r="E10" s="88">
         <v>3</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="88">
         <v>797</v>
       </c>
-      <c r="G10" s="94">
+      <c r="G10" s="88">
         <v>1344</v>
       </c>
-      <c r="H10" s="94">
+      <c r="H10" s="88">
         <v>929</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="88">
         <v>777</v>
       </c>
       <c r="J10" s="61">
@@ -31272,28 +31272,28 @@
       <c r="A11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="94">
+      <c r="B11" s="88">
         <v>2</v>
       </c>
-      <c r="C11" s="94">
+      <c r="C11" s="88">
         <v>2</v>
       </c>
-      <c r="D11" s="94">
+      <c r="D11" s="88">
         <v>84</v>
       </c>
-      <c r="E11" s="94">
+      <c r="E11" s="88">
         <v>44</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="88">
         <v>179</v>
       </c>
-      <c r="G11" s="94">
+      <c r="G11" s="88">
         <v>103</v>
       </c>
-      <c r="H11" s="94">
+      <c r="H11" s="88">
         <v>381</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="88">
         <v>404</v>
       </c>
       <c r="J11" s="61">
@@ -31310,28 +31310,28 @@
       <c r="A12" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="94">
+      <c r="B12" s="88">
         <v>6</v>
       </c>
-      <c r="C12" s="94">
+      <c r="C12" s="88">
         <v>16</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="88">
         <v>81</v>
       </c>
-      <c r="E12" s="94">
+      <c r="E12" s="88">
         <v>264</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="88">
         <v>262</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="88">
         <v>3</v>
       </c>
-      <c r="H12" s="94">
+      <c r="H12" s="88">
         <v>266</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="88">
         <v>176</v>
       </c>
       <c r="J12" s="61">
@@ -31348,28 +31348,28 @@
       <c r="A13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="94">
+      <c r="B13" s="88">
         <v>3</v>
       </c>
-      <c r="C13" s="94">
+      <c r="C13" s="88">
         <v>1</v>
       </c>
-      <c r="D13" s="94">
+      <c r="D13" s="88">
         <v>39</v>
       </c>
-      <c r="E13" s="94">
+      <c r="E13" s="88">
         <v>118</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="88">
         <v>120</v>
       </c>
-      <c r="G13" s="94">
+      <c r="G13" s="88">
         <v>157</v>
       </c>
-      <c r="H13" s="94">
+      <c r="H13" s="88">
         <v>51</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="88">
         <v>106</v>
       </c>
       <c r="J13" s="61">
@@ -31386,28 +31386,28 @@
       <c r="A14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="94">
+      <c r="B14" s="88">
         <v>9</v>
       </c>
-      <c r="C14" s="94">
+      <c r="C14" s="88">
         <v>23</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="88">
         <v>95</v>
       </c>
-      <c r="E14" s="94">
+      <c r="E14" s="88">
         <v>276</v>
       </c>
-      <c r="F14" s="94">
+      <c r="F14" s="88">
         <v>50</v>
       </c>
-      <c r="G14" s="94">
+      <c r="G14" s="88">
         <v>152</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="88">
         <v>749</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="88">
         <v>167</v>
       </c>
       <c r="J14" s="61">
@@ -31424,28 +31424,28 @@
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="94">
+      <c r="B15" s="88">
         <v>8</v>
       </c>
-      <c r="C15" s="94">
+      <c r="C15" s="88">
         <v>31</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="88">
         <v>120</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="88">
         <v>468</v>
       </c>
-      <c r="F15" s="94">
+      <c r="F15" s="88">
         <v>366</v>
       </c>
-      <c r="G15" s="94">
+      <c r="G15" s="88">
         <v>240</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="88">
         <v>684</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="88">
         <v>890</v>
       </c>
       <c r="J15" s="61">
@@ -52296,7 +52296,7 @@
   <sheetViews>
     <sheetView zoomScale="125" zoomScaleNormal="199" workbookViewId="0">
       <pane xSplit="1" topLeftCell="H1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P9" sqref="H9:P9"/>
+      <selection pane="topRight" activeCell="P3" sqref="P3:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -52317,32 +52317,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+      <c r="A1" s="89" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="89" t="s">
+      <c r="B1" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="88"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="5"/>
       <c r="K1" s="5"/>
-      <c r="L1" s="90" t="s">
+      <c r="L1" s="92" t="s">
         <v>107</v>
       </c>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
-      <c r="O1" s="92"/>
+      <c r="M1" s="93"/>
+      <c r="N1" s="93"/>
+      <c r="O1" s="94"/>
       <c r="Q1" s="6"/>
       <c r="R1" s="6"/>
     </row>
     <row r="2" spans="1:28" ht="64" x14ac:dyDescent="0.2">
-      <c r="A2" s="88"/>
+      <c r="A2" s="90"/>
       <c r="B2" s="6" t="s">
         <v>99</v>
       </c>
